--- a/xlsx/1.8优化前后跑分对比.xlsx
+++ b/xlsx/1.8优化前后跑分对比.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lab219\2020OpenGL\optimize\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lab219\2020OpenGL\notes\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009FC200-3725-4320-AFEE-A2C3FD176132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FEA3AC-369D-4E64-824C-39E50D9E6F9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1月8日" sheetId="2" r:id="rId1"/>
     <sheet name="旧数据" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="120">
   <si>
     <t>Heaven</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,52 @@
   </si>
   <si>
     <t>glmark2_zink_intel_master_11.20_20.3.0-rc2.txt</t>
+  </si>
+  <si>
+    <t>1.7-zinkwip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heaven_zink_zinkwip_1.7.html</t>
+  </si>
+  <si>
+    <t>运行出错，Segmentation fault (core dumped)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heaven_amd_zinkwip_1.7.html</t>
+  </si>
+  <si>
+    <t>gitlab zink-wip 分支 1月7号版本，在修改了一些bug之后可以顺利在AMD上运行heaven，但是glmark2无法运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glmark2_amd_master_11.20_20.3.0-rc2.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glmark2_zink_amd_master_11.20_20.3.0-rc2.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heaven_zink_amd_11.20_20.3.0-rc2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heaven_amd_master_11.20_20.3.0-rc2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -597,19 +643,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,7 +661,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -904,16 +950,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2105C6-B017-48E9-832D-3675BEB0A9A6}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="1" max="1" width="16.35546875" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="4" width="8.2109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.2109375" customWidth="1"/>
@@ -1315,13 +1361,55 @@
       <c r="D15" t="s">
         <v>101</v>
       </c>
+      <c r="E15">
+        <v>12128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15">
+        <v>104.8</v>
+      </c>
+      <c r="I15">
+        <v>2641</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>206.6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>4034</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16">
+        <v>56.1</v>
+      </c>
+      <c r="I16">
+        <v>1413</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>95.5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>102</v>
       </c>
@@ -1350,7 +1438,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>103</v>
       </c>
@@ -1379,8 +1467,80 @@
         <v>104</v>
       </c>
     </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19">
+        <v>106.5</v>
+      </c>
+      <c r="I19">
+        <v>2683</v>
+      </c>
+      <c r="J19">
+        <v>14.3</v>
+      </c>
+      <c r="K19">
+        <v>212.6</v>
+      </c>
+      <c r="M19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B20" s="15"/>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="I20">
+        <v>1936</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>142.9</v>
+      </c>
+      <c r="M20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B21" s="15"/>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B22" s="15"/>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="A3:A6"/>
@@ -1426,118 +1586,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="20"/>
       <c r="P2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="23" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26" t="s">
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="26"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="22"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="23" t="s">
+      <c r="Q3" s="20"/>
+      <c r="R3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="23" t="s">
+      <c r="S3" s="23"/>
+      <c r="T3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="25"/>
+      <c r="U3" s="23"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1766,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1831,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1710,7 +1870,7 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1749,7 +1909,7 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1788,7 +1948,7 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1813,7 +1973,7 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1933,9 +2093,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A1:A10"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="L3:M3"/>
@@ -1952,6 +2109,9 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/1.8优化前后跑分对比.xlsx
+++ b/xlsx/1.8优化前后跑分对比.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lab219\2020OpenGL\notes\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FEA3AC-369D-4E64-824C-39E50D9E6F9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4E0CC7-4DB7-472F-80D0-FC45AC11791A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1月8日" sheetId="2" r:id="rId1"/>
-    <sheet name="旧数据" sheetId="1" r:id="rId2"/>
+    <sheet name="精简" sheetId="3" r:id="rId1"/>
+    <sheet name="1月8日" sheetId="2" r:id="rId2"/>
+    <sheet name="旧数据" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="133">
   <si>
     <t>Heaven</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +467,57 @@
   </si>
   <si>
     <t>heaven_amd_master_11.20_20.3.0-rc2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Native</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均帧数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zink 优化后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GL Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对Native跑分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zink 项目优化后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1月26最终测试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +525,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,8 +540,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +566,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -635,6 +702,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -643,13 +754,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,15 +778,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -685,6 +801,6183 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>精简!$C$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>平均帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>最低帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>最高帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Heaven</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>glmark2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>精简!$C$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>104.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-871B-4E42-9A5A-AEFD03B737D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>精简!$C$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>平均帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>最低帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>最高帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Heaven</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>glmark2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>精简!$C$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-871B-4E42-9A5A-AEFD03B737D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1503233592"/>
+        <c:axId val="1503236872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1503233592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503236872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1503236872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503233592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Heaven</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>帧数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$7:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$C$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>平均帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>最低帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>最高帧数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Heaven</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$9:$H$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(精简!$C$9:$E$9,精简!$G$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>104.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5B8-4EE5-80A5-0E41CA26A8FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$7:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$C$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>平均帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>最低帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>最高帧数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Heaven</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$10:$H$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(精简!$C$10:$E$10,精简!$G$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5B8-4EE5-80A5-0E41CA26A8FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="894425840"/>
+        <c:axId val="894426824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="894425840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="894426824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="894426824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="894425840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2333657665415403E-2"/>
+          <c:y val="0.17908051597408076"/>
+          <c:w val="0.30841908939678375"/>
+          <c:h val="0.12473381404862482"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>工具跑分</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$7:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$F$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>glmark2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$9:$H$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$F$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C91B-4228-B114-0D87CEC17F74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$7:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$F$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>glmark2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$10:$H$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$F$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C91B-4228-B114-0D87CEC17F74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="894425840"/>
+        <c:axId val="894426824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="894425840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="894426824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="894426824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="894425840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13096680804490005"/>
+          <c:y val="0.18532052524850265"/>
+          <c:w val="0.30854217497880199"/>
+          <c:h val="7.0186619367752556E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Heaven</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>帧数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$7:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$C$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>平均帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>最低帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>最高帧数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Heaven</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$9:$H$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(精简!$C$9:$E$9,精简!$G$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>104.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-217A-4492-A3B7-2AC640F26C70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$7:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$C$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>平均帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>最低帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>最高帧数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Heaven</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$10:$H$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(精简!$C$10:$E$10,精简!$G$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-217A-4492-A3B7-2AC640F26C70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zink 优化后</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$7:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$C$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>平均帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>最低帧数</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>最高帧数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Heaven</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$11:$H$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(精简!$C$11:$E$11,精简!$G$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-217A-4492-A3B7-2AC640F26C70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="601496232"/>
+        <c:axId val="894408456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="601496232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="894408456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="894408456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601496232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.358845186866166E-2"/>
+          <c:y val="0.17167140565762612"/>
+          <c:w val="0.58641822673620647"/>
+          <c:h val="8.5884022298433491E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$7:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$F$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$9:$H$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$F$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B3E-4C31-AB3B-9633D6C7EBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$7:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$F$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$10:$H$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$F$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B3E-4C31-AB3B-9633D6C7EBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zink 优化后</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$7:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$F$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$11:$H$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$F$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9B3E-4C31-AB3B-9633D6C7EBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-36"/>
+        <c:axId val="601496232"/>
+        <c:axId val="894408456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="601496232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="894408456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="894408456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601496232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$7:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$G$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>glmark2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$9:$H$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$G$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>12128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8690-47A0-8FD8-9A08A4311617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$7:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$G$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>glmark2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$10:$H$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$G$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>4034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8690-47A0-8FD8-9A08A4311617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>精简!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zink 优化后</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$7:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$G$7:$H$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>分数</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>glmark2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>精简!$C$11:$H$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>精简!$G$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>5232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8690-47A0-8FD8-9A08A4311617}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-36"/>
+        <c:axId val="601496232"/>
+        <c:axId val="894408456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="601496232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="894408456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="894408456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601496232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586882</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>52062</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>58214</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE685088-C9A2-4E48-ACAC-2DDAF34536B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>445032</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>131267</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69980</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636FF0BC-F576-4B66-ADAE-7D5169DCFF55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>277630</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>56716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>661833</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69980</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE91FB7F-5580-4429-A455-9B729BD6CEBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>334345</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2330</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>96049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED74EC3-FCF2-4EBF-B111-B927A2721733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>124409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>557093</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6221</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED94791-B83D-48F5-8C23-BCE74B9B6DED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>531480</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3477</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F82473-F96A-4889-9DCD-33987127CC0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -949,11 +7242,719 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E0F24-9104-445C-A00A-04C9CA30E20D}">
+  <dimension ref="B2:I52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="30"/>
+      <c r="C3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="30"/>
+      <c r="C4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="30"/>
+      <c r="C5" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="17"/>
+      <c r="C7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="17">
+        <v>104.8</v>
+      </c>
+      <c r="D9" s="17">
+        <v>14</v>
+      </c>
+      <c r="E9" s="17">
+        <v>206.6</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2641</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17">
+        <v>12128</v>
+      </c>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="17">
+        <v>56.1</v>
+      </c>
+      <c r="D10" s="17">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17">
+        <v>95.5</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1413</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17">
+        <v>4034</v>
+      </c>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="17">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="D11" s="17">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17">
+        <v>142.9</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1936</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17">
+        <v>5232</v>
+      </c>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="21"/>
+      <c r="C39" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="2:9" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="B40" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="17">
+        <v>104.8</v>
+      </c>
+      <c r="D41" s="17">
+        <v>14</v>
+      </c>
+      <c r="E41" s="17">
+        <v>206.6</v>
+      </c>
+      <c r="F41" s="27">
+        <v>2641</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="17">
+        <v>12128</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="17">
+        <v>56.1</v>
+      </c>
+      <c r="D42" s="17">
+        <v>10</v>
+      </c>
+      <c r="E42" s="17">
+        <v>95.5</v>
+      </c>
+      <c r="F42" s="27">
+        <v>1413</v>
+      </c>
+      <c r="G42" s="47">
+        <f>F42/F41</f>
+        <v>0.53502461188943584</v>
+      </c>
+      <c r="H42" s="17">
+        <v>4034</v>
+      </c>
+      <c r="I42" s="47">
+        <f>H42/H41</f>
+        <v>0.33261873350923482</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="17">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="D43" s="17">
+        <v>10</v>
+      </c>
+      <c r="E43" s="17">
+        <v>142.9</v>
+      </c>
+      <c r="F43" s="27">
+        <v>1936</v>
+      </c>
+      <c r="G43" s="47">
+        <f>F43/F41</f>
+        <v>0.73305566073457029</v>
+      </c>
+      <c r="H43" s="17">
+        <v>5232</v>
+      </c>
+      <c r="I43" s="47">
+        <f>H43/H41</f>
+        <v>0.43139841688654351</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="21"/>
+      <c r="C48" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="2:9" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="B49" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="17">
+        <v>106.9</v>
+      </c>
+      <c r="D50" s="17">
+        <v>13.8</v>
+      </c>
+      <c r="E50" s="17">
+        <v>212</v>
+      </c>
+      <c r="F50" s="27">
+        <v>2693</v>
+      </c>
+      <c r="G50" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="17">
+        <v>12167</v>
+      </c>
+      <c r="I50" s="46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="17">
+        <v>55.8</v>
+      </c>
+      <c r="D51" s="17">
+        <v>10.1</v>
+      </c>
+      <c r="E51" s="17">
+        <v>94</v>
+      </c>
+      <c r="F51" s="27">
+        <v>1405</v>
+      </c>
+      <c r="G51" s="47">
+        <f>F51/F50</f>
+        <v>0.52172298551800966</v>
+      </c>
+      <c r="H51" s="17">
+        <v>4123</v>
+      </c>
+      <c r="I51" s="47">
+        <f>H51/H50</f>
+        <v>0.3388674282896359</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="B52" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="17">
+        <v>77.3</v>
+      </c>
+      <c r="D52" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="E52" s="17">
+        <v>144</v>
+      </c>
+      <c r="F52" s="27">
+        <v>1946</v>
+      </c>
+      <c r="G52" s="47">
+        <f>F52/F50</f>
+        <v>0.72261418492387675</v>
+      </c>
+      <c r="H52" s="17">
+        <v>5192</v>
+      </c>
+      <c r="I52" s="47">
+        <f>H52/H50</f>
+        <v>0.4267280348483603</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F41:F43">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D6CE8A78-707A-4A8D-BBE7-931F31E15C58}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E56ADAE2-6241-4170-BD58-B8D4721B3345}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E2744603-155D-447E-91F2-14773E29083F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{73DBEE64-AF7C-4125-8488-BD39B883C15A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H43">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{11C2696A-2037-49AB-81D9-65290D392CA3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{791E2F5F-1084-4AC3-A30B-5FC4E27C7F79}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50:F52">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E5FF14E4-5FBD-4B9E-A39B-D968B37FC8CE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5A5566C9-3D7F-4EE9-94BE-ED513767728B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C5D3108B-EAD2-40EF-96E9-CC1ED12BF4E6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{80A6C2C0-0FA3-4A31-B9DD-A8B9C62EAB53}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:H52">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{071C3B7D-A6DC-4962-8B3E-F334FB382A3D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8EB1A58E-CEDA-40A1-85D6-763CADD612C1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D6CE8A78-707A-4A8D-BBE7-931F31E15C58}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{E56ADAE2-6241-4170-BD58-B8D4721B3345}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{E2744603-155D-447E-91F2-14773E29083F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{73DBEE64-AF7C-4125-8488-BD39B883C15A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F41:F43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{11C2696A-2037-49AB-81D9-65290D392CA3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{791E2F5F-1084-4AC3-A30B-5FC4E27C7F79}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H41:H43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E5FF14E4-5FBD-4B9E-A39B-D968B37FC8CE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5A5566C9-3D7F-4EE9-94BE-ED513767728B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{C5D3108B-EAD2-40EF-96E9-CC1ED12BF4E6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{80A6C2C0-0FA3-4A31-B9DD-A8B9C62EAB53}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F50:F52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{071C3B7D-A6DC-4962-8B3E-F334FB382A3D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8EB1A58E-CEDA-40A1-85D6-763CADD612C1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H50:H52</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2105C6-B017-48E9-832D-3675BEB0A9A6}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -966,37 +7967,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" t="s">
         <v>65</v>
       </c>
@@ -1026,13 +8027,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="35" t="s">
         <v>72</v>
       </c>
       <c r="D3" t="s">
@@ -1061,9 +8062,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="35"/>
       <c r="D4" t="s">
         <v>74</v>
       </c>
@@ -1090,9 +8091,9 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35" t="s">
         <v>73</v>
       </c>
       <c r="D5" t="s">
@@ -1121,9 +8122,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="35"/>
       <c r="D6" t="s">
         <v>74</v>
       </c>
@@ -1153,13 +8154,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="35" t="s">
         <v>72</v>
       </c>
       <c r="D7" t="s">
@@ -1188,9 +8189,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="35"/>
       <c r="D8" t="s">
         <v>74</v>
       </c>
@@ -1205,9 +8206,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="17" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="35" t="s">
         <v>73</v>
       </c>
       <c r="D9" t="s">
@@ -1237,9 +8238,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="35"/>
       <c r="D10" t="s">
         <v>74</v>
       </c>
@@ -1272,7 +8273,7 @@
       <c r="A11" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="33" t="s">
         <v>93</v>
       </c>
       <c r="C11" t="s">
@@ -1283,13 +8284,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="15"/>
+      <c r="B12" s="33"/>
       <c r="D12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="15"/>
+      <c r="B13" s="33"/>
       <c r="C13" t="s">
         <v>73</v>
       </c>
@@ -1319,7 +8320,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="15"/>
+      <c r="B14" s="33"/>
       <c r="D14" t="s">
         <v>74</v>
       </c>
@@ -1471,7 +8472,7 @@
       <c r="A19" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="33" t="s">
         <v>115</v>
       </c>
       <c r="C19" t="s">
@@ -1500,7 +8501,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="15"/>
+      <c r="B20" s="33"/>
       <c r="D20" t="s">
         <v>110</v>
       </c>
@@ -1524,7 +8525,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
+      <c r="B21" s="33"/>
       <c r="C21" t="s">
         <v>113</v>
       </c>
@@ -1533,7 +8534,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
+      <c r="B22" s="33"/>
       <c r="D22" t="s">
         <v>110</v>
       </c>
@@ -1563,7 +8564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W12"/>
   <sheetViews>
@@ -1586,118 +8587,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="19" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21" t="s">
+      <c r="Q2" s="39"/>
+      <c r="R2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="18" t="s">
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="18"/>
+      <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="19" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="21" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="21" t="s">
+      <c r="S3" s="43"/>
+      <c r="T3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="23"/>
+      <c r="U3" s="43"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1766,7 +8767,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1831,7 +8832,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1870,7 +8871,7 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1909,7 +8910,7 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1948,7 +8949,7 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1973,7 +8974,7 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2093,6 +9094,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A1:A10"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="L3:M3"/>
@@ -2109,9 +9113,6 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
